--- a/Unity/Packages/com.et.core/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Packages/com.et.core/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16507" windowHeight="9517" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -69,9 +82,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Match</t>
   </si>
   <si>
     <t>Map</t>
@@ -104,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1094,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
@@ -1262,7 +1272,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -1277,30 +1287,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="5">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,7 +1306,7 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1399,10 +1391,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -1419,10 +1411,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -1439,10 +1431,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -1459,10 +1451,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -1479,10 +1471,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>
